--- a/test/test_file_3.xlsx
+++ b/test/test_file_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFF857-2981-4598-81CB-59873747C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E67A17-793D-4FDD-B2A5-259A44B3A37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FD2C609D-1063-4D92-BB57-573369685090}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>Signal</t>
   </si>
   <si>
-    <t>Concentration (fM)</t>
+    <t>Concentration (aM)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
